--- a/sequences/02_localizer.xlsx
+++ b/sequences/02_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
   </si>
   <si>
     <t>dog/dog006.png</t>
   </si>
   <si>
-    <t>car/car015.png</t>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
   </si>
   <si>
     <t>flower/flower010.png</t>
   </si>
   <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
   </si>
   <si>
     <t>dog/dog005.png</t>
   </si>
   <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
     <t>flower/flower003.png</t>
   </si>
   <si>
     <t>dog/dog004.png</t>
   </si>
   <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
     <t>dog/dog003.png</t>
   </si>
   <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
   </si>
   <si>
     <t>face/face031.png</t>
   </si>
   <si>
-    <t>face/face030.png</t>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
   </si>
   <si>
     <t>face/face022.png</t>
   </si>
   <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
     <t>dog/dog019.png</t>
   </si>
   <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
     <t>flower/flower025.png</t>
   </si>
   <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
     <t>dog/dog028.png</t>
   </si>
   <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
   </si>
   <si>
     <t>flower/flower046.png</t>
   </si>
   <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
     <t>face/face042.png</t>
   </si>
   <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
+    <t>flower/flower040.png</t>
   </si>
   <si>
     <t>flower/flower044.png</t>
   </si>
   <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
   </si>
   <si>
     <t>car/car035.png</t>
   </si>
   <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
+    <t>flower/flower032.png</t>
   </si>
   <si>
     <t>face/face047.png</t>
   </si>
   <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
     <t>face/face035.png</t>
   </si>
   <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
     <t>face/face039.png</t>
   </si>
   <si>
-    <t>car/car039.png</t>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
   </si>
   <si>
     <t>car/car057.png</t>
   </si>
   <si>
-    <t>flower/flower048.png</t>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
   </si>
   <si>
     <t>flower/flower062.png</t>
   </si>
   <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
     <t>dog/dog050.png</t>
   </si>
   <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
     <t>dog/dog056.png</t>
   </si>
   <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
   </si>
   <si>
     <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.268565695369911</v>
+        <v>1.55237572877933</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.256674097557799</v>
+        <v>1.326533500200776</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.559924357614947</v>
+        <v>1.481454677759686</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.253666383246648</v>
+        <v>1.432207517012944</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.523201039681913</v>
+        <v>1.474467901106949</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.586497347889489</v>
+        <v>1.465973947058855</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.63843733792303</v>
+        <v>1.560863552719205</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.669832630935373</v>
+        <v>1.571694540172563</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.618147286175412</v>
+        <v>1.304507667737604</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.513952032423653</v>
+        <v>1.835993604128241</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.36534547822613</v>
+        <v>1.359440152080624</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.38675186622474</v>
+        <v>1.738844947113908</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.132711076334147</v>
+        <v>1.331713051814344</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.437994955591524</v>
+        <v>1.592784090962297</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.490761625416261</v>
+        <v>1.566760876575488</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.466245927626987</v>
+        <v>1.511183737674144</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.88453451404561</v>
+        <v>1.442922343837636</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.391366116994494</v>
+        <v>1.608735175660568</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.549043929791329</v>
+        <v>1.708542214323894</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.550769149063436</v>
+        <v>1.70372229448977</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.438947829496794</v>
+        <v>1.501155668309831</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.698714535449346</v>
+        <v>1.779052176231566</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.367299047565376</v>
+        <v>1.408872493158766</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.435459173944756</v>
+        <v>1.218451306067079</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.43914596654487</v>
+        <v>1.508245030848784</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.300133733807096</v>
+        <v>1.618298015198781</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.424203404916288</v>
+        <v>1.373105869359483</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.737291736008525</v>
+        <v>1.075633455359672</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.617474731467124</v>
+        <v>1.50161004872154</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.368219701520293</v>
+        <v>1.162817841083217</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.28539056759454</v>
+        <v>1.441656075125204</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.266709438837637</v>
+        <v>1.420290239377247</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.964761930369858</v>
+        <v>1.312472769960929</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.533252009797219</v>
+        <v>1.260575902615181</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.415447355804374</v>
+        <v>1.450587753753758</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.493264036635347</v>
+        <v>1.552533220988972</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.595390250671336</v>
+        <v>1.714497560331176</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.406173539157571</v>
+        <v>1.817001265654734</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.352681186904317</v>
+        <v>1.318394764901823</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.552235115354205</v>
+        <v>1.585845471524247</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1.620528680371739</v>
+        <v>1.200705620418326</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.583371964717678</v>
+        <v>1.49870804017892</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.569787328118474</v>
+        <v>1.544854318169383</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.440305440842448</v>
+        <v>1.341916070680427</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.494959901001352</v>
+        <v>1.32521149789919</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.757820015625644</v>
+        <v>1.528277023986164</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1.594353836331662</v>
+        <v>1.459241117074136</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.614040987817184</v>
+        <v>1.310578482266954</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.310629071755836</v>
+        <v>1.45519131285136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.61992023346086</v>
+        <v>1.703464010531482</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.791743872071625</v>
+        <v>1.397807435065236</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.321106378689116</v>
+        <v>1.437038425045856</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.441696349366108</v>
+        <v>1.554261379482365</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.39517569053367</v>
+        <v>1.391795553366537</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.406879245594676</v>
+        <v>1.691753614299625</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.496187307348776</v>
+        <v>1.382447950336899</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.638906385426597</v>
+        <v>1.564835615609975</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.664117478870333</v>
+        <v>1.602970424299652</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.61569756660883</v>
+        <v>1.262019204310606</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.512922982795456</v>
+        <v>1.465495214350675</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.575348357488728</v>
+        <v>1.429456887839321</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.557409146488679</v>
+        <v>1.752150276843656</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.344732936646047</v>
+        <v>1.671353824062792</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.290269363946806</v>
+        <v>1.731537215056757</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.366471060889761</v>
+        <v>1.423038788843762</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.492965734490188</v>
+        <v>1.338918875161656</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.375452124038637</v>
+        <v>1.457113340337893</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.402716898360507</v>
+        <v>1.757860152219827</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.797812879922192</v>
+        <v>1.526605035583164</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.586917888284038</v>
+        <v>1.339530423332051</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.420781021329978</v>
+        <v>1.459206853491882</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.257709820843236</v>
+        <v>1.545999533088254</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.535734557936338</v>
+        <v>1.45312730987231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.415714572552771</v>
+        <v>1.55153270702721</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.254960259963122</v>
+        <v>1.459382284620775</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.399768466623827</v>
+        <v>1.227390098356636</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.508420626468554</v>
+        <v>1.6118933109303</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.340770463866286</v>
+        <v>1.294439910824174</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.635724128327798</v>
+        <v>1.361807533538287</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.611765446720939</v>
+        <v>1.372238082754845</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.390794330137506</v>
+        <v>1.435879638454082</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.699453055837392</v>
+        <v>1.416348056738438</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.271802820949581</v>
+        <v>1.544189248405039</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.395685959687887</v>
+        <v>1.376634367133915</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.690078218121099</v>
+        <v>1.569251291914989</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.678562695290953</v>
+        <v>1.530848414114262</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.37839420155705</v>
+        <v>1.445834596611794</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.716403996641077</v>
+        <v>1.398064352812993</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.272691435930002</v>
+        <v>1.414847579750179</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.692944960849524</v>
+        <v>1.584080991612278</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.531960033816123</v>
+        <v>1.561987440202943</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.738137159788799</v>
+        <v>1.279084685497649</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.676931400356044</v>
+        <v>1.506562623081353</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.519654817842265</v>
+        <v>1.789759189784801</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.366126204084492</v>
+        <v>1.467670636756115</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.498011774982541</v>
+        <v>1.505407288100292</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.017550704852142</v>
+        <v>1.33916254688941</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.52682201796532</v>
+        <v>1.572812324189573</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.552180457056791</v>
+        <v>1.495746894963065</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.464606986451718</v>
+        <v>1.506533967553443</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.667464649136913</v>
+        <v>1.543200439805633</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.337602928693457</v>
+        <v>1.438474353529795</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.43689979119545</v>
+        <v>1.502257429480356</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.284030919567908</v>
+        <v>1.426031540218869</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.747362921905928</v>
+        <v>1.46065243709496</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.313004571165296</v>
+        <v>1.446187504370456</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.372954543202693</v>
+        <v>1.362127224251048</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.653435617310146</v>
+        <v>1.671001007314578</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.369861061181744</v>
+        <v>1.453160281146618</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.51820750152189</v>
+        <v>1.677029475876684</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.466090525157503</v>
+        <v>1.519049270916764</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.536595666320151</v>
+        <v>1.497054568733846</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.389718222841223</v>
+        <v>1.368066925068715</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.346182375631113</v>
+        <v>1.545047683965671</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.185122862893388</v>
+        <v>1.672002650896856</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.475622382503997</v>
+        <v>1.446829172931207</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.568070491647735</v>
+        <v>1.551919382905331</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.392486426342471</v>
+        <v>1.596035699157442</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.319162153354754</v>
+        <v>1.38286779776389</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.515134157231449</v>
+        <v>1.6192949749933</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.604901185183896</v>
+        <v>1.502684765683474</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.177626810757904</v>
+        <v>1.624140084618312</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.312591559974029</v>
+        <v>1.687045497311419</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.383301743317143</v>
+        <v>1.410428383059614</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.364370321590606</v>
+        <v>1.284287733225201</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.322754451335272</v>
+        <v>1.644948201147852</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.528898419959735</v>
+        <v>1.414315360327111</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.446537473634605</v>
+        <v>1.532408428637664</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.474100349452174</v>
+        <v>1.446151758117227</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.776030338003493</v>
+        <v>1.502437203447621</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.509877649524189</v>
+        <v>1.588374124085559</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.662154051930769</v>
+        <v>1.607244889252064</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.365375847069791</v>
+        <v>1.376042386020309</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.492087179955887</v>
+        <v>1.396864179221468</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.666550726089167</v>
+        <v>1.609066974615464</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.549626403813817</v>
+        <v>1.614942637380864</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.403937468703709</v>
+        <v>1.546376803517755</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.444424343337848</v>
+        <v>1.561279193701398</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.384863375496482</v>
+        <v>1.68863440432265</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.598054466753293</v>
+        <v>1.558610439773608</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.495987014395748</v>
+        <v>1.410234838769296</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.408793965568746</v>
+        <v>1.311674426494231</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.68361811216561</v>
+        <v>1.450659377446337</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.670793224414939</v>
+        <v>1.626219229551605</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.825730229783046</v>
+        <v>1.533522975417991</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.409360499453743</v>
+        <v>1.343955091912014</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.563334834029905</v>
+        <v>1.689059176412514</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.470863568504059</v>
+        <v>1.353857976971812</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.311224990593269</v>
+        <v>1.435388289269709</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.577367370027266</v>
+        <v>1.552000609692986</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.481796108218252</v>
+        <v>1.483477179929475</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.634311633350266</v>
+        <v>1.585691641590638</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.353701826114431</v>
+        <v>1.322433478951091</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.766240126478732</v>
+        <v>1.637895036756453</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.404569453674651</v>
+        <v>1.565005688103115</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.469045746872791</v>
+        <v>1.551411798412327</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.31298132305344</v>
+        <v>1.395641809699141</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.588251862228171</v>
+        <v>1.659916292185659</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.626509776260162</v>
+        <v>1.748517972145108</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.462394584637061</v>
+        <v>1.525266622954058</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.345930565301374</v>
+        <v>1.630991296227251</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.502186658137491</v>
+        <v>1.240451080769385</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.601395513914493</v>
+        <v>1.3685138467297</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.5779689220965</v>
+        <v>1.75279663124726</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.479468970464347</v>
+        <v>1.290362873070622</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.572200402445145</v>
+        <v>1.376626994919385</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.727575945231229</v>
+        <v>1.546104603952699</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.707347885344927</v>
+        <v>1.454591275256329</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.526637539544458</v>
+        <v>1.655644850535017</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.438829618329442</v>
+        <v>1.469712092037005</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.339744086018731</v>
+        <v>1.584504824627981</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.541363089013593</v>
+        <v>1.579426166846271</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.593749458558737</v>
+        <v>1.479319068214868</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.464526775403985</v>
+        <v>1.706852151367638</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.579944086359613</v>
+        <v>1.478789864758309</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.430339435323149</v>
+        <v>1.554660195049461</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.617887306200241</v>
+        <v>1.618409728327588</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.405690044153847</v>
+        <v>1.356396615038176</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.648911701797188</v>
+        <v>1.521682052556188</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.30890163809279</v>
+        <v>1.488359175381122</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.624023864923645</v>
+        <v>1.07929320152796</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.429080338989495</v>
+        <v>1.442364034180982</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.54998052924287</v>
+        <v>1.609483077970638</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.559976507061232</v>
+        <v>1.615498777678446</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.4446732636381</v>
+        <v>1.757735595654799</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.771913063340993</v>
+        <v>1.498846677008153</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.506512206478069</v>
+        <v>1.503960381043508</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.462856295958179</v>
+        <v>1.571796553809443</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.655561359406931</v>
+        <v>1.4234084812917</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.59385388921074</v>
+        <v>1.887401074593824</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.451761283303603</v>
+        <v>1.458524035958537</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.295559255804201</v>
+        <v>1.504552447500846</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.444577679306528</v>
+        <v>1.670631851137027</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.355910956644376</v>
+        <v>1.483897691150721</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.540505580230782</v>
+        <v>1.362692611465813</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.639602087050845</v>
+        <v>1.48146969099106</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.514043416396384</v>
+        <v>1.263495782016278</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.509308105986557</v>
+        <v>1.602306652826148</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.593189358132128</v>
+        <v>1.37588846562468</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.683577229086771</v>
+        <v>1.585573096456842</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.414153663945018</v>
+        <v>1.48007507956881</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.570988148872338</v>
+        <v>1.53139600406599</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.653002918054061</v>
+        <v>1.33634598200068</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.655803202472936</v>
+        <v>1.677257410099971</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.374656042493922</v>
+        <v>1.38463364030971</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.385561269055768</v>
+        <v>1.6332422457927</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.50106277991092</v>
+        <v>1.408729349185846</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.296001151357719</v>
+        <v>1.617567089287421</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.296903120160466</v>
+        <v>1.462583180720995</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.265172151775959</v>
+        <v>1.318469383429783</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.611683532197527</v>
+        <v>1.51072077687777</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.566287411239714</v>
+        <v>1.520698393287027</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.555685585580302</v>
+        <v>1.477415092727159</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.429089350886597</v>
+        <v>1.673480571578425</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.344218281459035</v>
+        <v>1.260987368902064</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.53193350412669</v>
+        <v>1.676638725891909</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.675291219890279</v>
+        <v>1.34002750699062</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.56310151911698</v>
+        <v>1.651272746551423</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.425139399185995</v>
+        <v>1.494797264013383</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.740954450180633</v>
+        <v>1.388003497030596</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.323156511634296</v>
+        <v>1.288832747877672</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.637136768280389</v>
+        <v>1.474920761982611</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.659978193624504</v>
+        <v>1.496505620873805</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.81043122279856</v>
+        <v>1.388308095227537</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.349631272998549</v>
+        <v>1.407758178307548</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.451704050187728</v>
+        <v>1.466825564654187</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.561666617281192</v>
+        <v>1.52500143403445</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.540666616592763</v>
+        <v>1.673073075403092</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.628565162386041</v>
+        <v>1.567047090199713</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.383963762567907</v>
+        <v>1.66046841390288</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.285383710932043</v>
+        <v>1.564988941776751</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.577125371092709</v>
+        <v>1.50497550027121</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.597979191726339</v>
+        <v>1.56608953924143</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.387683494353177</v>
+        <v>1.605367325787897</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.325774510575415</v>
+        <v>1.523580080496898</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.406604580351867</v>
+        <v>1.495400294195154</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.673899476789841</v>
+        <v>1.529888144723791</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.325110358113564</v>
+        <v>1.447150965465627</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.682142246141427</v>
+        <v>1.511735907237</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.298303252894055</v>
+        <v>1.38477718474271</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.603757262829035</v>
+        <v>1.365525432461782</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.577865896693315</v>
+        <v>1.805875654466923</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.396073134772318</v>
+        <v>1.322362797613651</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.484452685734643</v>
+        <v>1.443597503805394</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.315485124719006</v>
+        <v>1.851504813893185</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.521546340732604</v>
+        <v>1.721892073407575</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.634823178305534</v>
+        <v>1.556662058227348</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.42660213769954</v>
+        <v>1.565679928197841</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.375016997015773</v>
+        <v>1.324789993148646</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.410393953529846</v>
+        <v>1.620889828404443</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.379177173344752</v>
+        <v>1.579952484009921</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.439384297919042</v>
+        <v>1.52236631157724</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.621843259213255</v>
+        <v>1.981267249654967</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.292105980058318</v>
+        <v>1.590334077735862</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.445641237098963</v>
+        <v>1.413867617627933</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.187154369595939</v>
+        <v>1.213801666180686</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/02_localizer.xlsx
+++ b/sequences/02_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.55237572877933</v>
+        <v>1.728922075451724</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.326533500200776</v>
+        <v>1.55766815798878</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.481454677759686</v>
+        <v>1.424744510372106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.432207517012944</v>
+        <v>1.463028347747217</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.474467901106949</v>
+        <v>1.671614310948071</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.465973947058855</v>
+        <v>1.678467304398323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.560863552719205</v>
+        <v>1.50811150823051</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.571694540172563</v>
+        <v>1.546664949026971</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.304507667737604</v>
+        <v>1.568802212591009</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.835993604128241</v>
+        <v>1.546209205557026</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.359440152080624</v>
+        <v>1.592439605254704</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.738844947113908</v>
+        <v>1.435525698631771</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.331713051814344</v>
+        <v>1.775412900169741</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.592784090962297</v>
+        <v>1.456302741789358</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.566760876575488</v>
+        <v>1.502404197994745</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.511183737674144</v>
+        <v>1.528683901219003</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.442922343837636</v>
+        <v>1.861419659683861</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.608735175660568</v>
+        <v>1.553042126455909</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.708542214323894</v>
+        <v>1.72388436275831</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.70372229448977</v>
+        <v>1.700396990510916</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.501155668309831</v>
+        <v>1.486806180926202</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.779052176231566</v>
+        <v>1.689500329347523</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.408872493158766</v>
+        <v>1.159806133900296</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.218451306067079</v>
+        <v>1.682086608059115</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.508245030848784</v>
+        <v>1.377218287803513</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.618298015198781</v>
+        <v>1.413343796977671</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.373105869359483</v>
+        <v>1.328988217459842</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.075633455359672</v>
+        <v>1.623707264165688</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.50161004872154</v>
+        <v>1.506237791568646</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.162817841083217</v>
+        <v>1.485125444510358</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.441656075125204</v>
+        <v>1.51416827376164</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.420290239377247</v>
+        <v>1.577072438102363</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.312472769960929</v>
+        <v>1.417111187433146</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.260575902615181</v>
+        <v>1.367179298651127</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.450587753753758</v>
+        <v>1.330913809489808</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.552533220988972</v>
+        <v>1.291976881594923</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.714497560331176</v>
+        <v>1.516539066536562</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.817001265654734</v>
+        <v>1.775574291260611</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.318394764901823</v>
+        <v>1.39666346459496</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.585845471524247</v>
+        <v>1.476655339406764</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.200705620418326</v>
+        <v>1.445517384183021</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.49870804017892</v>
+        <v>1.6213292728602</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.544854318169383</v>
+        <v>1.555302425455744</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.341916070680427</v>
+        <v>1.443416130453091</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.32521149789919</v>
+        <v>1.378495617632565</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.528277023986164</v>
+        <v>1.678867639489606</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.459241117074136</v>
+        <v>1.596174258357271</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.310578482266954</v>
+        <v>1.496147194173836</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.45519131285136</v>
+        <v>1.630754405045362</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.703464010531482</v>
+        <v>1.561322977256419</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.397807435065236</v>
+        <v>1.621210367282628</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.437038425045856</v>
+        <v>1.532665540080085</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.554261379482365</v>
+        <v>1.460113159442605</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.391795553366537</v>
+        <v>1.187496036041616</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.691753614299625</v>
+        <v>1.564369845461582</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.382447950336899</v>
+        <v>1.182448753741627</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.564835615609975</v>
+        <v>1.559508161633122</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.602970424299652</v>
+        <v>1.50545730224454</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.262019204310606</v>
+        <v>1.457454421682967</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.465495214350675</v>
+        <v>1.680396491900812</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.429456887839321</v>
+        <v>1.706527513253752</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.752150276843656</v>
+        <v>1.27107042400941</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.671353824062792</v>
+        <v>1.561014877847916</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.731537215056757</v>
+        <v>1.769539385831031</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.423038788843762</v>
+        <v>1.487592213712182</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.338918875161656</v>
+        <v>1.744143953696346</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.457113340337893</v>
+        <v>1.51803475657889</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.757860152219827</v>
+        <v>1.315079441167106</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.526605035583164</v>
+        <v>1.646797602538771</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.339530423332051</v>
+        <v>1.406122153291506</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.459206853491882</v>
+        <v>1.475288825621576</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.545999533088254</v>
+        <v>1.316776937163614</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.45312730987231</v>
+        <v>1.378933439176691</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.55153270702721</v>
+        <v>1.663593139534953</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.459382284620775</v>
+        <v>1.465503533476654</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.227390098356636</v>
+        <v>1.622328273076752</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.6118933109303</v>
+        <v>1.579952620240799</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.294439910824174</v>
+        <v>1.356479089349776</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.361807533538287</v>
+        <v>1.531719863646867</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.372238082754845</v>
+        <v>1.522884294495508</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.435879638454082</v>
+        <v>1.802763389958165</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.416348056738438</v>
+        <v>1.694190162975618</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.544189248405039</v>
+        <v>1.682517835529588</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.376634367133915</v>
+        <v>1.610603022470576</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.569251291914989</v>
+        <v>1.598377942009516</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.530848414114262</v>
+        <v>1.433742094676428</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.445834596611794</v>
+        <v>1.649526987914966</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.398064352812993</v>
+        <v>1.37829753063</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.414847579750179</v>
+        <v>1.429830632414618</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.584080991612278</v>
+        <v>1.179148748254814</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.561987440202943</v>
+        <v>1.420202021547164</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.279084685497649</v>
+        <v>1.438718442338973</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.506562623081353</v>
+        <v>1.574744297844277</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.789759189784801</v>
+        <v>1.453812382729107</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.467670636756115</v>
+        <v>1.639260057364642</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.505407288100292</v>
+        <v>1.486115933015993</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.33916254688941</v>
+        <v>1.386832767507846</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.572812324189573</v>
+        <v>1.669519974494829</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.495746894963065</v>
+        <v>1.634170844917538</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.506533967553443</v>
+        <v>1.405349004174557</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.543200439805633</v>
+        <v>1.43360436589256</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.438474353529795</v>
+        <v>1.638840263522346</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.502257429480356</v>
+        <v>1.650324136314232</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.426031540218869</v>
+        <v>1.267405753376108</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.46065243709496</v>
+        <v>1.389492814309637</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.446187504370456</v>
+        <v>1.420494111422934</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.362127224251048</v>
+        <v>1.518829368516909</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.671001007314578</v>
+        <v>1.565249718217067</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.453160281146618</v>
+        <v>1.35583823678533</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.677029475876684</v>
+        <v>1.299306104612368</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.519049270916764</v>
+        <v>1.475391649404662</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.497054568733846</v>
+        <v>1.545862111661214</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.368066925068715</v>
+        <v>1.491643681026283</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.545047683965671</v>
+        <v>1.343821130181484</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.672002650896856</v>
+        <v>1.423283913388854</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.446829172931207</v>
+        <v>1.598907612054194</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.551919382905331</v>
+        <v>1.559806694777922</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.596035699157442</v>
+        <v>1.558953842001068</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.38286779776389</v>
+        <v>1.491346808175839</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.6192949749933</v>
+        <v>1.568852973700624</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.502684765683474</v>
+        <v>1.547390252730742</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.624140084618312</v>
+        <v>1.46736821684499</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.687045497311419</v>
+        <v>1.618317759910161</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.410428383059614</v>
+        <v>1.506691473872238</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.284287733225201</v>
+        <v>1.455781130208235</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.644948201147852</v>
+        <v>1.279427648600193</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.414315360327111</v>
+        <v>1.708630609464842</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.532408428637664</v>
+        <v>1.391621719865296</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.446151758117227</v>
+        <v>1.286775674049518</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.502437203447621</v>
+        <v>1.605532004375527</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.588374124085559</v>
+        <v>1.634440199955156</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.607244889252064</v>
+        <v>1.635725241585018</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.376042386020309</v>
+        <v>1.503513740294804</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.396864179221468</v>
+        <v>1.43483081179017</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.609066974615464</v>
+        <v>1.636321025913233</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.614942637380864</v>
+        <v>1.752233165160229</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.546376803517755</v>
+        <v>1.598524640309847</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.561279193701398</v>
+        <v>1.285461355151768</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.68863440432265</v>
+        <v>1.58463477592975</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.558610439773608</v>
+        <v>1.235900775061739</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.410234838769296</v>
+        <v>1.589849946824787</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.311674426494231</v>
+        <v>1.495739174752681</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.450659377446337</v>
+        <v>1.801895762912891</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.626219229551605</v>
+        <v>1.174069831633757</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.533522975417991</v>
+        <v>1.373497753700922</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.343955091912014</v>
+        <v>1.348451812850529</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.689059176412514</v>
+        <v>1.437354534219812</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.353857976971812</v>
+        <v>1.378802636461858</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.435388289269709</v>
+        <v>1.26604392589813</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.552000609692986</v>
+        <v>1.680619370273645</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.483477179929475</v>
+        <v>1.417454726836951</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.585691641590638</v>
+        <v>1.621606434577542</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.322433478951091</v>
+        <v>1.479166794569348</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.637895036756453</v>
+        <v>1.170256380521417</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.565005688103115</v>
+        <v>1.600790990969973</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.551411798412327</v>
+        <v>1.876130179997989</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.395641809699141</v>
+        <v>1.594029263755239</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.659916292185659</v>
+        <v>1.52825432021368</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.748517972145108</v>
+        <v>1.516876957208032</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.525266622954058</v>
+        <v>1.366279995376119</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.630991296227251</v>
+        <v>1.33289977526583</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.240451080769385</v>
+        <v>1.72917991620217</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.3685138467297</v>
+        <v>1.447427783094851</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.75279663124726</v>
+        <v>1.374460864146119</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.290362873070622</v>
+        <v>1.618864540989796</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.376626994919385</v>
+        <v>1.716411172810454</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.546104603952699</v>
+        <v>1.293324567181187</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.454591275256329</v>
+        <v>1.640110212353265</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.655644850535017</v>
+        <v>1.682528488740348</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.469712092037005</v>
+        <v>1.559927677945073</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.584504824627981</v>
+        <v>1.246907499520657</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.579426166846271</v>
+        <v>1.6664075832681</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.479319068214868</v>
+        <v>1.569646745085233</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.706852151367638</v>
+        <v>1.638938605269679</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>1.478789864758309</v>
+        <v>1.472148312535334</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.554660195049461</v>
+        <v>1.324784275130342</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.618409728327588</v>
+        <v>1.177060967828259</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.356396615038176</v>
+        <v>1.545242140139865</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.521682052556188</v>
+        <v>1.506013075689141</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.488359175381122</v>
+        <v>1.350892835571224</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1.07929320152796</v>
+        <v>1.361390286516214</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.442364034180982</v>
+        <v>1.373830512702816</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.609483077970638</v>
+        <v>1.50791075951689</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.615498777678446</v>
+        <v>1.587023735804854</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.757735595654799</v>
+        <v>1.39450970078981</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.498846677008153</v>
+        <v>1.483712589489918</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.503960381043508</v>
+        <v>1.584238593831856</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.571796553809443</v>
+        <v>1.579582155528039</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.4234084812917</v>
+        <v>1.338921458791781</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.887401074593824</v>
+        <v>1.488013467250468</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.458524035958537</v>
+        <v>1.533868205967814</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.504552447500846</v>
+        <v>1.542672408203988</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.670631851137027</v>
+        <v>1.378269288080227</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.483897691150721</v>
+        <v>1.613900177777165</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.362692611465813</v>
+        <v>1.785842917667623</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.48146969099106</v>
+        <v>1.437027657657285</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.263495782016278</v>
+        <v>1.544684155405446</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.602306652826148</v>
+        <v>1.36698221645403</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.37588846562468</v>
+        <v>1.494981196813921</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.585573096456842</v>
+        <v>1.660187116550413</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.48007507956881</v>
+        <v>1.521434790356447</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.53139600406599</v>
+        <v>1.462158314472251</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.33634598200068</v>
+        <v>1.520553957397289</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1.677257410099971</v>
+        <v>1.597699453547563</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.38463364030971</v>
+        <v>1.080272668510647</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.6332422457927</v>
+        <v>1.334254046577626</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.408729349185846</v>
+        <v>1.288653022054924</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.617567089287421</v>
+        <v>1.579837003905692</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.462583180720995</v>
+        <v>1.515784664046374</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.318469383429783</v>
+        <v>1.522295976173072</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.51072077687777</v>
+        <v>1.748478351381887</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.520698393287027</v>
+        <v>1.4114361754655</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.477415092727159</v>
+        <v>1.273262950086324</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.673480571578425</v>
+        <v>1.571404637673705</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.260987368902064</v>
+        <v>1.493777640476425</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.676638725891909</v>
+        <v>1.506887018474123</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.34002750699062</v>
+        <v>1.595655702169707</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.651272746551423</v>
+        <v>1.345539758667762</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.494797264013383</v>
+        <v>1.469630254288372</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.388003497030596</v>
+        <v>1.352553573677528</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.288832747877672</v>
+        <v>1.770120284925455</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.474920761982611</v>
+        <v>1.538375064365288</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.496505620873805</v>
+        <v>1.414814302205406</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.388308095227537</v>
+        <v>1.446695648410863</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.407758178307548</v>
+        <v>1.41358803012943</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.466825564654187</v>
+        <v>1.543227034530605</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.52500143403445</v>
+        <v>1.47725558799908</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.673073075403092</v>
+        <v>1.675046806719041</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.567047090199713</v>
+        <v>1.561135016581076</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.66046841390288</v>
+        <v>1.479058932179724</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.564988941776751</v>
+        <v>1.31030747198421</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.50497550027121</v>
+        <v>1.380384072191241</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.56608953924143</v>
+        <v>1.538217660232797</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.605367325787897</v>
+        <v>1.522554355063217</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.523580080496898</v>
+        <v>1.658195389861502</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.495400294195154</v>
+        <v>1.469398918659377</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.529888144723791</v>
+        <v>1.609675998254345</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.447150965465627</v>
+        <v>1.753144976438852</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.511735907237</v>
+        <v>1.726624834288574</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.38477718474271</v>
+        <v>1.389920208876746</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.365525432461782</v>
+        <v>1.281499543005159</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.805875654466923</v>
+        <v>1.338804663828495</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.322362797613651</v>
+        <v>1.549364248723118</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.443597503805394</v>
+        <v>1.514896048265566</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.851504813893185</v>
+        <v>1.562890492876534</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.721892073407575</v>
+        <v>1.47220749920895</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.556662058227348</v>
+        <v>1.462650897788123</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.565679928197841</v>
+        <v>1.275169777004948</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.324789993148646</v>
+        <v>1.40598698650219</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.620889828404443</v>
+        <v>1.49115676125404</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.579952484009921</v>
+        <v>1.433037918470325</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.52236631157724</v>
+        <v>1.380302553280137</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.981267249654967</v>
+        <v>1.43859215151259</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.590334077735862</v>
+        <v>1.427768004232889</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.413867617627933</v>
+        <v>1.410654711498687</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.213801666180686</v>
+        <v>1.361349668206586</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/02_localizer.xlsx
+++ b/sequences/02_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
   </si>
   <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
+    <t>dog/dog045.jpg</t>
   </si>
   <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
     <t>house/house074.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
     <t>dog/dog083.jpg</t>
   </si>
   <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
   </si>
   <si>
     <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.728922075451724</v>
+        <v>1.464499761544036</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.55766815798878</v>
+        <v>1.497184238859193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.424744510372106</v>
+        <v>1.468631662802777</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.463028347747217</v>
+        <v>1.480729918010458</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.671614310948071</v>
+        <v>1.533813218874534</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.678467304398323</v>
+        <v>1.608265204284723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.50811150823051</v>
+        <v>1.20808991770232</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.546664949026971</v>
+        <v>1.548616089232394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.568802212591009</v>
+        <v>1.614263918811288</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.546209205557026</v>
+        <v>1.380602922902724</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.592439605254704</v>
+        <v>1.611281175956722</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.435525698631771</v>
+        <v>1.294652228822297</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.775412900169741</v>
+        <v>1.771278144430721</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.456302741789358</v>
+        <v>1.292581922633905</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.502404197994745</v>
+        <v>1.283946217794878</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.528683901219003</v>
+        <v>1.491189244227052</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.861419659683861</v>
+        <v>1.565948562044877</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.553042126455909</v>
+        <v>1.460784225720421</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.72388436275831</v>
+        <v>1.318425172632988</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.700396990510916</v>
+        <v>1.067940082129007</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.486806180926202</v>
+        <v>1.449955225275136</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.689500329347523</v>
+        <v>1.237744542347865</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.159806133900296</v>
+        <v>1.382682736605629</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.682086608059115</v>
+        <v>1.533757997135553</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.377218287803513</v>
+        <v>1.261604624094232</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.413343796977671</v>
+        <v>1.452150526730567</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.328988217459842</v>
+        <v>1.635492304932393</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.623707264165688</v>
+        <v>1.545773908232661</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.506237791568646</v>
+        <v>1.487056100896291</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.485125444510358</v>
+        <v>1.705325647032311</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.51416827376164</v>
+        <v>1.527583236907303</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.577072438102363</v>
+        <v>1.420615581592451</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.417111187433146</v>
+        <v>1.686803121531715</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.367179298651127</v>
+        <v>1.391417838285195</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.330913809489808</v>
+        <v>1.159004239864049</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.291976881594923</v>
+        <v>1.593857583513965</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.516539066536562</v>
+        <v>1.371667153819586</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.775574291260611</v>
+        <v>1.336768602241487</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.39666346459496</v>
+        <v>1.536919502047587</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.476655339406764</v>
+        <v>1.599759542066503</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.445517384183021</v>
+        <v>1.528403404512657</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.6213292728602</v>
+        <v>1.20027448114897</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.555302425455744</v>
+        <v>1.373048231999071</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.443416130453091</v>
+        <v>1.776362422315365</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.378495617632565</v>
+        <v>1.543161020720112</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.678867639489606</v>
+        <v>1.393980156064679</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.596174258357271</v>
+        <v>1.615406439876503</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.496147194173836</v>
+        <v>1.427581828759082</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.630754405045362</v>
+        <v>1.623771190576421</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.561322977256419</v>
+        <v>1.70915740862473</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.621210367282628</v>
+        <v>1.510313162245721</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.532665540080085</v>
+        <v>1.624410456896576</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.460113159442605</v>
+        <v>1.497974753536323</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.187496036041616</v>
+        <v>1.359186591683711</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.564369845461582</v>
+        <v>1.44831906112003</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.182448753741627</v>
+        <v>1.696054715148875</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.559508161633122</v>
+        <v>1.552960236696858</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.50545730224454</v>
+        <v>1.465126237258449</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.457454421682967</v>
+        <v>1.388315620760686</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.680396491900812</v>
+        <v>1.385414003365631</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.706527513253752</v>
+        <v>1.430756407546226</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.27107042400941</v>
+        <v>1.58071987101039</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.561014877847916</v>
+        <v>1.60953531766657</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.769539385831031</v>
+        <v>1.200851989763369</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.487592213712182</v>
+        <v>1.377653858693495</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.744143953696346</v>
+        <v>1.566987126578187</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.51803475657889</v>
+        <v>1.456171919820217</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.315079441167106</v>
+        <v>1.728848674444647</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.646797602538771</v>
+        <v>1.544364977935153</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.406122153291506</v>
+        <v>1.612685597498887</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.475288825621576</v>
+        <v>1.400557852212006</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.316776937163614</v>
+        <v>1.314401577719022</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.378933439176691</v>
+        <v>1.40825813430108</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.663593139534953</v>
+        <v>1.660615714974551</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.465503533476654</v>
+        <v>1.479271556594976</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.622328273076752</v>
+        <v>1.543012181856861</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.579952620240799</v>
+        <v>1.637519910623131</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.356479089349776</v>
+        <v>1.450081097017305</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.531719863646867</v>
+        <v>1.539484592280265</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.522884294495508</v>
+        <v>1.49788265414965</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.802763389958165</v>
+        <v>1.412108624419426</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.694190162975618</v>
+        <v>1.342574072041189</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.682517835529588</v>
+        <v>1.441065804855618</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.610603022470576</v>
+        <v>1.67244553958634</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.598377942009516</v>
+        <v>1.475832992785576</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.433742094676428</v>
+        <v>1.340255235341606</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.649526987914966</v>
+        <v>1.288417304942267</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.37829753063</v>
+        <v>1.519488348048474</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.429830632414618</v>
+        <v>1.345119073896753</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.179148748254814</v>
+        <v>1.615584873233303</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.420202021547164</v>
+        <v>1.595207688777971</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1.438718442338973</v>
+        <v>1.530260496170716</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.574744297844277</v>
+        <v>1.612823845896708</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.453812382729107</v>
+        <v>1.525990165591318</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.639260057364642</v>
+        <v>1.678437693846947</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.486115933015993</v>
+        <v>1.589292799151002</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.386832767507846</v>
+        <v>1.821372941763037</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.669519974494829</v>
+        <v>1.380974469424864</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.634170844917538</v>
+        <v>1.51066995847193</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.405349004174557</v>
+        <v>1.333100696072045</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.43360436589256</v>
+        <v>1.570270258483122</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.638840263522346</v>
+        <v>1.564527595473529</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.650324136314232</v>
+        <v>1.486245463520309</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.267405753376108</v>
+        <v>1.528806072575865</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.389492814309637</v>
+        <v>1.260199058181421</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.420494111422934</v>
+        <v>1.263621994423172</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.518829368516909</v>
+        <v>1.568993206546102</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.565249718217067</v>
+        <v>1.70249542727259</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1.35583823678533</v>
+        <v>1.268425010019935</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.299306104612368</v>
+        <v>1.616855249470737</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.475391649404662</v>
+        <v>1.591412204895003</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.545862111661214</v>
+        <v>1.659770507794428</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.491643681026283</v>
+        <v>1.477259843217344</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.343821130181484</v>
+        <v>1.33018097736783</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.423283913388854</v>
+        <v>1.59164873335668</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.598907612054194</v>
+        <v>1.476212542607302</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.559806694777922</v>
+        <v>1.323751299088382</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.558953842001068</v>
+        <v>1.511494569031395</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.491346808175839</v>
+        <v>1.28347919738865</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.568852973700624</v>
+        <v>1.753803280875171</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.547390252730742</v>
+        <v>1.445667225671201</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.46736821684499</v>
+        <v>1.354272478571088</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.618317759910161</v>
+        <v>1.512185310867768</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.506691473872238</v>
+        <v>1.360099672058051</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.455781130208235</v>
+        <v>1.566598901347799</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.279427648600193</v>
+        <v>1.693349861272621</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.708630609464842</v>
+        <v>1.477258386411388</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.391621719865296</v>
+        <v>1.85176217143334</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.286775674049518</v>
+        <v>1.560773557983754</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.605532004375527</v>
+        <v>1.421597639042074</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.634440199955156</v>
+        <v>1.689418672449256</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.635725241585018</v>
+        <v>1.368493649426141</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.503513740294804</v>
+        <v>1.573559880192262</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.43483081179017</v>
+        <v>1.552779158843204</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.636321025913233</v>
+        <v>1.45796948665165</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.752233165160229</v>
+        <v>1.724346325582363</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.598524640309847</v>
+        <v>1.459782346015229</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.285461355151768</v>
+        <v>1.495245484594217</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.58463477592975</v>
+        <v>1.505605450720046</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.235900775061739</v>
+        <v>1.553884189813565</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.589849946824787</v>
+        <v>1.368155596106441</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.495739174752681</v>
+        <v>1.606922216619427</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.801895762912891</v>
+        <v>1.645624879053745</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.174069831633757</v>
+        <v>1.544161174453287</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.373497753700922</v>
+        <v>1.543243304704653</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.348451812850529</v>
+        <v>1.335380029810628</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.437354534219812</v>
+        <v>1.602880791092492</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.378802636461858</v>
+        <v>1.293110323362013</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.26604392589813</v>
+        <v>1.636843177396854</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.680619370273645</v>
+        <v>1.434665630135188</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.417454726836951</v>
+        <v>1.33564089976445</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.621606434577542</v>
+        <v>1.62084265481923</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.479166794569348</v>
+        <v>1.48045650425316</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.170256380521417</v>
+        <v>1.387716510723627</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.600790990969973</v>
+        <v>1.463480550048359</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.876130179997989</v>
+        <v>1.693843999552989</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.594029263755239</v>
+        <v>1.26926588118903</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.52825432021368</v>
+        <v>1.603633751670561</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.516876957208032</v>
+        <v>1.651067212585552</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.366279995376119</v>
+        <v>1.50410170317564</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.33289977526583</v>
+        <v>1.638447773985665</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.72917991620217</v>
+        <v>1.502749349904738</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.447427783094851</v>
+        <v>1.642584489798205</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.374460864146119</v>
+        <v>1.679865353041238</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.618864540989796</v>
+        <v>1.468694775125295</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.716411172810454</v>
+        <v>1.541873084435694</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.293324567181187</v>
+        <v>1.43972428304289</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.640110212353265</v>
+        <v>1.575777391758872</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.682528488740348</v>
+        <v>1.410589888358654</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.559927677945073</v>
+        <v>1.635364576017153</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.246907499520657</v>
+        <v>1.499312925811937</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.6664075832681</v>
+        <v>1.655722997009524</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.569646745085233</v>
+        <v>1.541849961054741</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.638938605269679</v>
+        <v>1.42016377905604</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.472148312535334</v>
+        <v>1.729478319863851</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.324784275130342</v>
+        <v>1.478542522109845</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.177060967828259</v>
+        <v>1.569815190956292</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.545242140139865</v>
+        <v>1.374112700888237</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.506013075689141</v>
+        <v>1.366502372927158</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.350892835571224</v>
+        <v>1.712298168049924</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1.361390286516214</v>
+        <v>1.471786307817526</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.373830512702816</v>
+        <v>1.349598568435284</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.50791075951689</v>
+        <v>1.713959979813652</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.587023735804854</v>
+        <v>1.648174809073852</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.39450970078981</v>
+        <v>1.186638382184211</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.483712589489918</v>
+        <v>1.546480034761445</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.584238593831856</v>
+        <v>1.412694832997304</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.579582155528039</v>
+        <v>1.396640255672029</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.338921458791781</v>
+        <v>1.57384411121544</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.488013467250468</v>
+        <v>1.58036406103605</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.533868205967814</v>
+        <v>1.702568094337513</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.542672408203988</v>
+        <v>1.504604786516119</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.378269288080227</v>
+        <v>1.65208696652948</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.613900177777165</v>
+        <v>1.375612323392544</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.785842917667623</v>
+        <v>1.393692771737939</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.437027657657285</v>
+        <v>1.694652365989853</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.544684155405446</v>
+        <v>1.429977631417831</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.36698221645403</v>
+        <v>1.460486104654799</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.494981196813921</v>
+        <v>1.51484018919056</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.660187116550413</v>
+        <v>1.487341942606444</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.521434790356447</v>
+        <v>1.702065467286079</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.462158314472251</v>
+        <v>1.633434847630076</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.520553957397289</v>
+        <v>1.536140433601482</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.597699453547563</v>
+        <v>1.371531326744653</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.080272668510647</v>
+        <v>1.437919246050545</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.334254046577626</v>
+        <v>1.553869383968721</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.288653022054924</v>
+        <v>1.634614986833139</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.579837003905692</v>
+        <v>1.474810172727113</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.515784664046374</v>
+        <v>1.401440006560406</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.522295976173072</v>
+        <v>1.313084718146559</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.748478351381887</v>
+        <v>1.489937717265672</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.4114361754655</v>
+        <v>1.262006927727489</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.273262950086324</v>
+        <v>1.348263708306459</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.571404637673705</v>
+        <v>1.508176315262576</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.493777640476425</v>
+        <v>1.717485920745024</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.506887018474123</v>
+        <v>1.385883849868627</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.595655702169707</v>
+        <v>1.561927971520328</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.345539758667762</v>
+        <v>1.546898896638248</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.469630254288372</v>
+        <v>1.583230722193022</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.352553573677528</v>
+        <v>1.47156198774975</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.770120284925455</v>
+        <v>1.390976228812268</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.538375064365288</v>
+        <v>1.457447311821878</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.414814302205406</v>
+        <v>1.543280748062591</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.446695648410863</v>
+        <v>1.4261300510276</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.41358803012943</v>
+        <v>1.425155746606865</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.543227034530605</v>
+        <v>1.461073323767317</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.47725558799908</v>
+        <v>1.506387551868319</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.675046806719041</v>
+        <v>1.302474553025204</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.561135016581076</v>
+        <v>1.520059030985522</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.479058932179724</v>
+        <v>1.57424146639798</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.31030747198421</v>
+        <v>1.422847209062287</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.380384072191241</v>
+        <v>1.611262931481061</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.538217660232797</v>
+        <v>1.261384432230649</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.522554355063217</v>
+        <v>1.397746539134059</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.658195389861502</v>
+        <v>1.418712446866449</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.469398918659377</v>
+        <v>1.308488270612963</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.609675998254345</v>
+        <v>1.525221912611314</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.753144976438852</v>
+        <v>1.481762420114729</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.726624834288574</v>
+        <v>1.465644361551486</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.389920208876746</v>
+        <v>1.107209713643983</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.281499543005159</v>
+        <v>1.606823974844545</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.338804663828495</v>
+        <v>1.571212110708325</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.549364248723118</v>
+        <v>1.584903911539057</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.514896048265566</v>
+        <v>1.69751490921165</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.562890492876534</v>
+        <v>1.244781764794079</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.47220749920895</v>
+        <v>1.261557743759637</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.462650897788123</v>
+        <v>1.607237990342908</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.275169777004948</v>
+        <v>1.945283789303699</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.40598698650219</v>
+        <v>1.491692080698954</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.49115676125404</v>
+        <v>1.902197956140247</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.433037918470325</v>
+        <v>1.436019844834113</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.380302553280137</v>
+        <v>1.469245391473305</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.43859215151259</v>
+        <v>1.319093537495939</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1.427768004232889</v>
+        <v>1.57850646077132</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.410654711498687</v>
+        <v>1.745181739269169</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.361349668206586</v>
+        <v>1.639954312743992</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/02_localizer.xlsx
+++ b/sequences/02_localizer.xlsx
@@ -31,6 +31,9 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
@@ -40,775 +43,772 @@
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>face/face037.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>face/face042.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
+    <t>face/face040.jpg</t>
   </si>
   <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>flower/flower039.jpg</t>
   </si>
   <si>
     <t>flower/flower049.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
   </si>
   <si>
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
     <t>dog/dog074.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>flower/flower070.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
   </si>
   <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
     <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1.611281175956722</v>
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1.283946217794878</v>
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1.491189244227052</v>
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1.237744542347865</v>
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1.533757997135553</v>
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1.261604624094232</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1.452150526730567</v>
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>1.686803121531715</v>
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1.371667153819586</v>
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>1.536919502047587</v>
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>1.566987126578187</v>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>1.456171919820217</v>
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>1.728848674444647</v>
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>1.544364977935153</v>
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>1.288417304942267</v>
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>1.519488348048474</v>
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>1.595207688777971</v>
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>1.530260496170716</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>1.612823845896708</v>
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>1.678437693846947</v>
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>1.380974469424864</v>
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>1.51066995847193</v>
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>1.568993206546102</v>
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
         <v>1.323751299088382</v>
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,7 +3763,7 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>1.560773557983754</v>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>1.421597639042074</v>
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>1.552779158843204</v>
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>1.505605450720046</v>
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>1.606922216619427</v>
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <v>1.335380029810628</v>
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,7 +4223,7 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>1.62084265481923</v>
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>1.387716510723627</v>
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>1.26926588118903</v>
@@ -4363,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
         <v>1.651067212585552</v>
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
         <v>1.655722997009524</v>
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,7 +4643,7 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>1.541849961054741</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
         <v>1.42016377905604</v>
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>1.478542522109845</v>
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <v>1.471786307817526</v>
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
         <v>1.349598568435284</v>
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
         <v>1.313084718146559</v>
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>1.717485920745024</v>
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,7 +5643,7 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
         <v>1.543280748062591</v>
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,7 +5863,7 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <v>1.397746539134059</v>
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
         <v>1.606823974844545</v>
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,7 +6023,7 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>1.571212110708325</v>
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,7 +6043,7 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
         <v>1.584903911539057</v>
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,7 +6063,7 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
         <v>1.69751490921165</v>
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,7 +6263,7 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>1.57850646077132</v>
@@ -6283,7 +6283,7 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
         <v>1.745181739269169</v>
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>

--- a/sequences/02_localizer.xlsx
+++ b/sequences/02_localizer.xlsx
@@ -31,6 +31,9 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
@@ -40,775 +43,772 @@
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
     <t>face/face034.jpg</t>
   </si>
   <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
+    <t>flower/flower044.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>flower/flower051.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
   </si>
   <si>
     <t>dog/dog061.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
   </si>
   <si>
     <t>flower/flower053.jpg</t>
   </si>
   <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
     <t>face/face058.jpg</t>
   </si>
   <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
   </si>
   <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
   </si>
   <si>
     <t>house/house074.jpg</t>
   </si>
   <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
+    <t>face/face071.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
     <t>face/face084.jpg</t>
   </si>
   <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
     <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.464499761544036</v>
+        <v>1.492997940121151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.497184238859193</v>
+        <v>1.609301795625734</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.468631662802777</v>
+        <v>1.568364699592792</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.480729918010458</v>
+        <v>1.612506734334087</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.533813218874534</v>
+        <v>1.463543038950449</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.608265204284723</v>
+        <v>1.516219209359524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.20808991770232</v>
+        <v>1.609046016327337</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.548616089232394</v>
+        <v>1.626410646986432</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.614263918811288</v>
+        <v>1.458909236015836</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.380602922902724</v>
+        <v>1.443679735479197</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.611281175956722</v>
+        <v>1.491218577008617</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.294652228822297</v>
+        <v>1.705819997788027</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.771278144430721</v>
+        <v>1.370371862592117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.292581922633905</v>
+        <v>1.464967113075565</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.283946217794878</v>
+        <v>1.527096557284959</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.491189244227052</v>
+        <v>1.338052986085305</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.565948562044877</v>
+        <v>1.391132339210114</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.460784225720421</v>
+        <v>1.538783071802164</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.318425172632988</v>
+        <v>1.524717956270165</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.067940082129007</v>
+        <v>1.404834285036008</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.449955225275136</v>
+        <v>1.527641534462947</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.237744542347865</v>
+        <v>1.620348849821625</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.382682736605629</v>
+        <v>1.71572547891046</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.533757997135553</v>
+        <v>1.348710915854174</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.261604624094232</v>
+        <v>1.593217061404039</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.452150526730567</v>
+        <v>1.67528968250904</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.635492304932393</v>
+        <v>1.488158151668699</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.545773908232661</v>
+        <v>1.647971878697903</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.487056100896291</v>
+        <v>1.580142158923341</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.705325647032311</v>
+        <v>1.353425532613516</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.527583236907303</v>
+        <v>1.741001183722931</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.420615581592451</v>
+        <v>1.362678729974031</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.686803121531715</v>
+        <v>1.566901269082123</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.391417838285195</v>
+        <v>1.423674127593179</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.159004239864049</v>
+        <v>1.303995867082754</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.593857583513965</v>
+        <v>1.427270128115111</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.371667153819586</v>
+        <v>1.551549284601448</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.336768602241487</v>
+        <v>1.387858246977217</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.536919502047587</v>
+        <v>1.670500919863753</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.599759542066503</v>
+        <v>1.240840578420687</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.528403404512657</v>
+        <v>1.543411038875549</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.20027448114897</v>
+        <v>1.219926797974881</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.373048231999071</v>
+        <v>1.514869105392691</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.776362422315365</v>
+        <v>1.612767235907029</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.543161020720112</v>
+        <v>1.499362460120865</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.393980156064679</v>
+        <v>1.338414959834016</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.615406439876503</v>
+        <v>1.600554641338415</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.427581828759082</v>
+        <v>1.711578575350276</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.623771190576421</v>
+        <v>1.25038338722008</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.70915740862473</v>
+        <v>1.154890655758208</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.510313162245721</v>
+        <v>1.41258454058238</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.624410456896576</v>
+        <v>1.356506782876711</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.497974753536323</v>
+        <v>1.554202749562944</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.359186591683711</v>
+        <v>1.347655814527118</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.44831906112003</v>
+        <v>1.612640473704889</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.696054715148875</v>
+        <v>1.598373751298266</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.552960236696858</v>
+        <v>1.667093186872407</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.465126237258449</v>
+        <v>1.61082636543603</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.388315620760686</v>
+        <v>1.771095333833144</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.385414003365631</v>
+        <v>1.313305026959033</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.430756407546226</v>
+        <v>1.14904221247041</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.58071987101039</v>
+        <v>1.558424943474916</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.60953531766657</v>
+        <v>1.145930610852624</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.200851989763369</v>
+        <v>1.57485959364762</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.377653858693495</v>
+        <v>1.486604396142499</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.566987126578187</v>
+        <v>1.507201714728486</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.456171919820217</v>
+        <v>1.492729271681962</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.728848674444647</v>
+        <v>1.375120012946392</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1.544364977935153</v>
+        <v>1.596458899355699</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.612685597498887</v>
+        <v>1.698198669742615</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.400557852212006</v>
+        <v>1.497812254616815</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.314401577719022</v>
+        <v>1.50129139931811</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.40825813430108</v>
+        <v>1.472615268971046</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.660615714974551</v>
+        <v>1.497087866866859</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.479271556594976</v>
+        <v>1.383670598166235</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.543012181856861</v>
+        <v>1.541919180027156</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.637519910623131</v>
+        <v>1.623328840133043</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.450081097017305</v>
+        <v>1.50432596285656</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.539484592280265</v>
+        <v>1.114961366199823</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.49788265414965</v>
+        <v>1.397982315787916</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.412108624419426</v>
+        <v>1.419703320105188</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.342574072041189</v>
+        <v>1.64647538574735</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.441065804855618</v>
+        <v>1.530795364642856</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.67244553958634</v>
+        <v>1.576100888924857</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.475832992785576</v>
+        <v>1.355698804371274</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.340255235341606</v>
+        <v>1.54469635737159</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.288417304942267</v>
+        <v>1.37659479492905</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.519488348048474</v>
+        <v>1.396884469897349</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.345119073896753</v>
+        <v>1.479157861257717</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.615584873233303</v>
+        <v>1.567456901188851</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1.595207688777971</v>
+        <v>1.605861051059931</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.530260496170716</v>
+        <v>1.523416699574951</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.612823845896708</v>
+        <v>1.429755108193442</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.525990165591318</v>
+        <v>1.820589324835002</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.678437693846947</v>
+        <v>1.605276151891177</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.589292799151002</v>
+        <v>1.710672731415763</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.821372941763037</v>
+        <v>1.326497495389862</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.380974469424864</v>
+        <v>1.147830555854598</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.51066995847193</v>
+        <v>1.72105106668725</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.333100696072045</v>
+        <v>1.332031822958829</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.570270258483122</v>
+        <v>1.396706195234933</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.564527595473529</v>
+        <v>1.336331324559182</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.486245463520309</v>
+        <v>1.514168378731465</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.528806072575865</v>
+        <v>1.635240341639655</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.260199058181421</v>
+        <v>1.608018307402509</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.263621994423172</v>
+        <v>1.555441671525825</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.568993206546102</v>
+        <v>1.743187407814339</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.70249542727259</v>
+        <v>1.249862474198004</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.268425010019935</v>
+        <v>1.635574293283944</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.616855249470737</v>
+        <v>1.643466230203131</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.591412204895003</v>
+        <v>1.399545114259755</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.659770507794428</v>
+        <v>1.795577484088356</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.477259843217344</v>
+        <v>1.516530221013684</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.33018097736783</v>
+        <v>1.509882502677682</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.59164873335668</v>
+        <v>1.532493357105781</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.476212542607302</v>
+        <v>1.287191241027331</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.323751299088382</v>
+        <v>1.452177620983104</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.511494569031395</v>
+        <v>1.675206737410636</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.28347919738865</v>
+        <v>1.565543179701711</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.753803280875171</v>
+        <v>1.295697764581523</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.445667225671201</v>
+        <v>1.340621535441812</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.354272478571088</v>
+        <v>1.531945969105253</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.512185310867768</v>
+        <v>1.548724439447782</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.360099672058051</v>
+        <v>1.596402322800665</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.566598901347799</v>
+        <v>1.747230386873549</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.693349861272621</v>
+        <v>1.522655920456075</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.477258386411388</v>
+        <v>1.362265732187313</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.85176217143334</v>
+        <v>1.746149149050467</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.560773557983754</v>
+        <v>1.739963098498753</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.421597639042074</v>
+        <v>1.566748970856838</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.689418672449256</v>
+        <v>1.528736012916895</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.368493649426141</v>
+        <v>1.567511162389217</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.573559880192262</v>
+        <v>1.364397692614262</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.552779158843204</v>
+        <v>1.254891794923753</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.45796948665165</v>
+        <v>1.578086125619445</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.724346325582363</v>
+        <v>1.577603087396982</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.459782346015229</v>
+        <v>1.242709247800508</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.495245484594217</v>
+        <v>1.468243410067773</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.505605450720046</v>
+        <v>1.660249500895141</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.553884189813565</v>
+        <v>1.572828225774518</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.368155596106441</v>
+        <v>1.462046276906554</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.606922216619427</v>
+        <v>1.534507916062502</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.645624879053745</v>
+        <v>1.794697038274565</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.544161174453287</v>
+        <v>1.582990710869908</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.543243304704653</v>
+        <v>1.37476453686122</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.335380029810628</v>
+        <v>1.626083193759361</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.602880791092492</v>
+        <v>1.797492429965142</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.293110323362013</v>
+        <v>1.553238928717209</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.636843177396854</v>
+        <v>1.419587476034934</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.434665630135188</v>
+        <v>1.536216013108744</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.33564089976445</v>
+        <v>1.356238553548657</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.62084265481923</v>
+        <v>1.228661260205516</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.48045650425316</v>
+        <v>1.521613636594898</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.387716510723627</v>
+        <v>1.647096489771017</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.463480550048359</v>
+        <v>1.370708986398729</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.693843999552989</v>
+        <v>1.288163529610358</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.26926588118903</v>
+        <v>1.607505941247425</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.603633751670561</v>
+        <v>1.505148313822774</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.651067212585552</v>
+        <v>1.558420959503063</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.50410170317564</v>
+        <v>1.538152184598887</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.638447773985665</v>
+        <v>1.220507959730041</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.502749349904738</v>
+        <v>1.307632523669955</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.642584489798205</v>
+        <v>1.689319712238196</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.679865353041238</v>
+        <v>1.835311274132561</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.468694775125295</v>
+        <v>1.503924752284063</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.541873084435694</v>
+        <v>1.578326124959608</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.43972428304289</v>
+        <v>1.527036263400482</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.575777391758872</v>
+        <v>1.482503024701191</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.410589888358654</v>
+        <v>1.559255602844279</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.635364576017153</v>
+        <v>1.375169770121632</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.499312925811937</v>
+        <v>1.298392474391654</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.655722997009524</v>
+        <v>1.406997052323418</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.541849961054741</v>
+        <v>1.256364115935384</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.42016377905604</v>
+        <v>1.297874768234043</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.729478319863851</v>
+        <v>1.620724344634008</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.478542522109845</v>
+        <v>1.61164845867347</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.569815190956292</v>
+        <v>1.327163694127008</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.374112700888237</v>
+        <v>1.496849026778853</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.366502372927158</v>
+        <v>1.539602351654514</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.712298168049924</v>
+        <v>1.635629948208406</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.471786307817526</v>
+        <v>1.563423189013681</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.349598568435284</v>
+        <v>1.306979378779686</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.713959979813652</v>
+        <v>1.298019879809807</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.648174809073852</v>
+        <v>1.154568639503267</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.186638382184211</v>
+        <v>1.217763650828206</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.546480034761445</v>
+        <v>1.413553464875082</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.412694832997304</v>
+        <v>1.350731835487781</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.396640255672029</v>
+        <v>1.379850822142827</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.57384411121544</v>
+        <v>1.494602209694388</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.58036406103605</v>
+        <v>1.430930375822659</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.702568094337513</v>
+        <v>1.195727073316512</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.504604786516119</v>
+        <v>1.445658811570576</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.65208696652948</v>
+        <v>1.684521154070162</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.375612323392544</v>
+        <v>1.610580347158008</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.393692771737939</v>
+        <v>1.738214757875055</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.694652365989853</v>
+        <v>1.688853982004507</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.429977631417831</v>
+        <v>1.509200550137139</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.460486104654799</v>
+        <v>1.304492485460934</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.51484018919056</v>
+        <v>1.585262672482241</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.487341942606444</v>
+        <v>1.472273131216798</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.702065467286079</v>
+        <v>1.959712007826016</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.633434847630076</v>
+        <v>1.478909414807304</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.536140433601482</v>
+        <v>1.257363200066554</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.371531326744653</v>
+        <v>1.575638308323257</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.437919246050545</v>
+        <v>1.789850652968638</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.553869383968721</v>
+        <v>1.473235442614748</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.634614986833139</v>
+        <v>1.592087292325124</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.474810172727113</v>
+        <v>1.226040504074013</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.401440006560406</v>
+        <v>1.737787900462623</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.313084718146559</v>
+        <v>1.626467510611086</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.489937717265672</v>
+        <v>1.674991921038584</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.262006927727489</v>
+        <v>1.260381088440937</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.348263708306459</v>
+        <v>1.513363488327972</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.508176315262576</v>
+        <v>1.88856923680484</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.717485920745024</v>
+        <v>1.734112972071071</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.385883849868627</v>
+        <v>1.483139016197031</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.561927971520328</v>
+        <v>1.589659996691187</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.546898896638248</v>
+        <v>1.60526539046654</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.583230722193022</v>
+        <v>1.536498612493795</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.47156198774975</v>
+        <v>1.42227801873655</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.390976228812268</v>
+        <v>1.566800345546553</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.457447311821878</v>
+        <v>1.57196564033795</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.543280748062591</v>
+        <v>1.309553098262846</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.4261300510276</v>
+        <v>1.71272515731914</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.425155746606865</v>
+        <v>1.760618747223566</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.461073323767317</v>
+        <v>1.537309913990974</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.506387551868319</v>
+        <v>1.402673120249652</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.302474553025204</v>
+        <v>1.290798036081951</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.520059030985522</v>
+        <v>1.707801660846806</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.57424146639798</v>
+        <v>1.373503499176259</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.422847209062287</v>
+        <v>1.298106319043843</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.611262931481061</v>
+        <v>1.774805365627805</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.261384432230649</v>
+        <v>1.549798541655455</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.397746539134059</v>
+        <v>1.651461946700702</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.418712446866449</v>
+        <v>1.540424380700667</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.308488270612963</v>
+        <v>1.494727478907637</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.525221912611314</v>
+        <v>1.640510793154819</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.481762420114729</v>
+        <v>1.534186250094651</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.465644361551486</v>
+        <v>1.618125055444843</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.107209713643983</v>
+        <v>1.280301627452159</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>1.606823974844545</v>
+        <v>1.237237967267814</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>1.571212110708325</v>
+        <v>1.234288061335037</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.584903911539057</v>
+        <v>1.825004750180287</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.69751490921165</v>
+        <v>1.203258769904587</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.244781764794079</v>
+        <v>1.282807453368303</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.261557743759637</v>
+        <v>1.499134858230198</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.607237990342908</v>
+        <v>1.245641010422242</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.945283789303699</v>
+        <v>1.371472253826741</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.491692080698954</v>
+        <v>1.715766905769257</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.902197956140247</v>
+        <v>1.62256439058845</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.436019844834113</v>
+        <v>1.461507430182891</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.469245391473305</v>
+        <v>1.404209210064193</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.319093537495939</v>
+        <v>1.410563460016341</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.57850646077132</v>
+        <v>1.335828307781048</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.745181739269169</v>
+        <v>1.598770903818541</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.639954312743992</v>
+        <v>1.231467926511234</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/02_localizer.xlsx
+++ b/sequences/02_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
     <t>dog/dog059.jpg</t>
   </si>
   <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
   </si>
   <si>
     <t>face/face092.jpg</t>
   </si>
   <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
     <t>face/face090.jpg</t>
   </si>
   <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
     <t>face/face091.jpg</t>
   </si>
   <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
     <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1.492997940121151</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1.609301795625734</v>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1.516219209359524</v>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1.626410646986432</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1.491218577008617</v>
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1.464967113075565</v>
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1.391132339210114</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1.404834285036008</v>
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1.488158151668699</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>1.647971878697903</v>
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>1.580142158923341</v>
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>1.543411038875549</v>
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1.219926797974881</v>
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>1.499362460120865</v>
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>1.596458899355699</v>
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>1.497087866866859</v>
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>1.530795364642856</v>
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>1.567456901188851</v>
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>1.605861051059931</v>
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>1.332031822958829</v>
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>1.396706195234933</v>
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>1.514168378731465</v>
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
         <v>1.635574293283944</v>
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>1.516530221013684</v>
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>1.295697764581523</v>
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>1.596402322800665</v>
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>1.578086125619445</v>
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,7 +3903,7 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>1.577603087396982</v>
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>1.468243410067773</v>
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
         <v>1.572828225774518</v>
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
         <v>1.536216013108744</v>
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>1.370708986398729</v>
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4443,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>1.689319712238196</v>
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>1.835311274132561</v>
@@ -4483,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
         <v>1.503924752284063</v>
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>1.578326124959608</v>
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <v>1.482503024701191</v>
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
         <v>1.298392474391654</v>
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,7 +5063,7 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <v>1.610580347158008</v>
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
         <v>1.688853982004507</v>
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>1.585262672482241</v>
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
         <v>1.472273131216798</v>
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
         <v>1.483139016197031</v>
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
         <v>1.60526539046654</v>
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
         <v>1.537309913990974</v>
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>1.373503499176259</v>
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,7 +5823,7 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>1.774805365627805</v>
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
         <v>1.494727478907637</v>
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
         <v>1.640510793154819</v>
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
         <v>1.237237967267814</v>
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,7 +6023,7 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
         <v>1.234288061335037</v>
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
         <v>1.499134858230198</v>
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
         <v>1.410563460016341</v>
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,7 +6263,7 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
         <v>1.335828307781048</v>
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
